--- a/SaaMedW/templates/Invoice.xlsx
+++ b/SaaMedW/templates/Invoice.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soshin.OPER\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Сошины\source\repos\SaaMedW\SaaMedW\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,11 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="Detail">Лист1!$A$6:$CT$6</definedName>
+    <definedName name="Footer">Лист1!$A$7:$CT$7</definedName>
+    <definedName name="Header">Лист1!$A$1:$CT$5</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>${OrganizationName}</t>
   </si>
@@ -50,16 +55,37 @@
     <t>Сумма</t>
   </si>
   <si>
-    <t xml:space="preserve">Лейкоцитарная формула (дифференцированный подсчет лейкоцитов, лейкоцитограмма, Differential White Blood Cell Count) с микроскопией мазка крови при наличии патологических сдвигов </t>
-  </si>
-  <si>
     <t>Итого</t>
+  </si>
+  <si>
+    <t>${Nn}</t>
+  </si>
+  <si>
+    <t>${BenefitName}</t>
+  </si>
+  <si>
+    <t>${Kol}</t>
+  </si>
+  <si>
+    <t>${Price}</t>
+  </si>
+  <si>
+    <t>${Sm}</t>
+  </si>
+  <si>
+    <t>${Itogo}</t>
+  </si>
+  <si>
+    <t>${Num}</t>
+  </si>
+  <si>
+    <t>${Dt}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -126,35 +152,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,7 +465,7 @@
   <dimension ref="A1:CT7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CH8" sqref="CH8"/>
+      <selection activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,45 +479,45 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="3">
-        <v>34555</v>
-      </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
+      <c r="L3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
       <c r="Y3" t="s">
         <v>2</v>
       </c>
-      <c r="AC3" s="4">
-        <v>43234</v>
-      </c>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
+      <c r="AC3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="11"/>
+      <c r="AQ3" s="11"/>
+      <c r="AR3" s="11"/>
+      <c r="AS3" s="11"/>
+      <c r="AT3" s="11"/>
     </row>
-    <row r="5" spans="1:98" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:98" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -601,16 +627,16 @@
       <c r="CS5" s="7"/>
       <c r="CT5" s="7"/>
     </row>
-    <row r="6" spans="1:98" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>1</v>
+    <row r="6" spans="1:98" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -667,53 +693,53 @@
       <c r="BG6" s="9"/>
       <c r="BH6" s="9"/>
       <c r="BI6" s="9"/>
-      <c r="BJ6" s="11">
-        <v>1</v>
-      </c>
-      <c r="BK6" s="11"/>
-      <c r="BL6" s="11"/>
-      <c r="BM6" s="11"/>
-      <c r="BN6" s="11"/>
-      <c r="BO6" s="11"/>
-      <c r="BP6" s="11"/>
-      <c r="BQ6" s="11"/>
-      <c r="BR6" s="11"/>
-      <c r="BS6" s="11"/>
-      <c r="BT6" s="11">
-        <v>500.45</v>
-      </c>
-      <c r="BU6" s="11"/>
-      <c r="BV6" s="11"/>
-      <c r="BW6" s="11"/>
-      <c r="BX6" s="11"/>
-      <c r="BY6" s="11"/>
-      <c r="BZ6" s="11"/>
-      <c r="CA6" s="11"/>
-      <c r="CB6" s="11"/>
-      <c r="CC6" s="11"/>
-      <c r="CD6" s="11"/>
-      <c r="CE6" s="11"/>
-      <c r="CF6" s="11"/>
-      <c r="CG6" s="11"/>
-      <c r="CH6" s="11">
-        <v>500.45</v>
-      </c>
-      <c r="CI6" s="11"/>
-      <c r="CJ6" s="11"/>
-      <c r="CK6" s="11"/>
-      <c r="CL6" s="11"/>
-      <c r="CM6" s="11"/>
-      <c r="CN6" s="11"/>
-      <c r="CO6" s="11"/>
-      <c r="CP6" s="11"/>
-      <c r="CQ6" s="11"/>
-      <c r="CR6" s="11"/>
-      <c r="CS6" s="11"/>
-      <c r="CT6" s="11"/>
+      <c r="BJ6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="BK6" s="10"/>
+      <c r="BL6" s="10"/>
+      <c r="BM6" s="10"/>
+      <c r="BN6" s="10"/>
+      <c r="BO6" s="10"/>
+      <c r="BP6" s="10"/>
+      <c r="BQ6" s="10"/>
+      <c r="BR6" s="10"/>
+      <c r="BS6" s="10"/>
+      <c r="BT6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="BU6" s="10"/>
+      <c r="BV6" s="10"/>
+      <c r="BW6" s="10"/>
+      <c r="BX6" s="10"/>
+      <c r="BY6" s="10"/>
+      <c r="BZ6" s="10"/>
+      <c r="CA6" s="10"/>
+      <c r="CB6" s="10"/>
+      <c r="CC6" s="10"/>
+      <c r="CD6" s="10"/>
+      <c r="CE6" s="10"/>
+      <c r="CF6" s="10"/>
+      <c r="CG6" s="10"/>
+      <c r="CH6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="CI6" s="10"/>
+      <c r="CJ6" s="10"/>
+      <c r="CK6" s="10"/>
+      <c r="CL6" s="10"/>
+      <c r="CM6" s="10"/>
+      <c r="CN6" s="10"/>
+      <c r="CO6" s="10"/>
+      <c r="CP6" s="10"/>
+      <c r="CQ6" s="10"/>
+      <c r="CR6" s="10"/>
+      <c r="CS6" s="10"/>
+      <c r="CT6" s="10"/>
     </row>
     <row r="7" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -799,24 +825,28 @@
       <c r="CE7" s="5"/>
       <c r="CF7" s="5"/>
       <c r="CG7" s="5"/>
-      <c r="CH7" s="12">
-        <v>500.45</v>
-      </c>
-      <c r="CI7" s="12"/>
-      <c r="CJ7" s="12"/>
-      <c r="CK7" s="12"/>
-      <c r="CL7" s="12"/>
-      <c r="CM7" s="12"/>
-      <c r="CN7" s="12"/>
-      <c r="CO7" s="12"/>
-      <c r="CP7" s="12"/>
-      <c r="CQ7" s="12"/>
-      <c r="CR7" s="12"/>
-      <c r="CS7" s="12"/>
-      <c r="CT7" s="12"/>
+      <c r="CH7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="CI7" s="6"/>
+      <c r="CJ7" s="6"/>
+      <c r="CK7" s="6"/>
+      <c r="CL7" s="6"/>
+      <c r="CM7" s="6"/>
+      <c r="CN7" s="6"/>
+      <c r="CO7" s="6"/>
+      <c r="CP7" s="6"/>
+      <c r="CQ7" s="6"/>
+      <c r="CR7" s="6"/>
+      <c r="CS7" s="6"/>
+      <c r="CT7" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L3:W3"/>
+    <mergeCell ref="AC3:AT3"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:BI5"/>
     <mergeCell ref="A7:CG7"/>
     <mergeCell ref="CH7:CT7"/>
     <mergeCell ref="BJ5:BS5"/>
@@ -827,10 +857,6 @@
     <mergeCell ref="BJ6:BS6"/>
     <mergeCell ref="BT6:CG6"/>
     <mergeCell ref="CH6:CT6"/>
-    <mergeCell ref="L3:W3"/>
-    <mergeCell ref="AC3:AT3"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:BI5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/SaaMedW/templates/Invoice.xlsx
+++ b/SaaMedW/templates/Invoice.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Сошины\source\repos\SaaMedW\SaaMedW\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soshin.OPER\source\Repos\SaaMedW\SaaMedW\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -85,8 +85,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +97,15 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -148,9 +157,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -159,12 +167,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -181,6 +186,9 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,381 +473,381 @@
   <dimension ref="A1:CT7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA19" sqref="AA19"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:98" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:98" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
       <c r="Y3" t="s">
         <v>2</v>
       </c>
-      <c r="AC3" s="12" t="s">
+      <c r="AC3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="11"/>
-      <c r="AL3" s="11"/>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="11"/>
-      <c r="AO3" s="11"/>
-      <c r="AP3" s="11"/>
-      <c r="AQ3" s="11"/>
-      <c r="AR3" s="11"/>
-      <c r="AS3" s="11"/>
-      <c r="AT3" s="11"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="9"/>
+      <c r="AO3" s="9"/>
+      <c r="AP3" s="9"/>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="9"/>
     </row>
-    <row r="5" spans="1:98" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:98" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="7"/>
-      <c r="AP5" s="7"/>
-      <c r="AQ5" s="7"/>
-      <c r="AR5" s="7"/>
-      <c r="AS5" s="7"/>
-      <c r="AT5" s="7"/>
-      <c r="AU5" s="7"/>
-      <c r="AV5" s="7"/>
-      <c r="AW5" s="7"/>
-      <c r="AX5" s="7"/>
-      <c r="AY5" s="7"/>
-      <c r="AZ5" s="7"/>
-      <c r="BA5" s="7"/>
-      <c r="BB5" s="7"/>
-      <c r="BC5" s="7"/>
-      <c r="BD5" s="7"/>
-      <c r="BE5" s="7"/>
-      <c r="BF5" s="7"/>
-      <c r="BG5" s="7"/>
-      <c r="BH5" s="7"/>
-      <c r="BI5" s="7"/>
-      <c r="BJ5" s="7" t="s">
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="5"/>
+      <c r="AU5" s="5"/>
+      <c r="AV5" s="5"/>
+      <c r="AW5" s="5"/>
+      <c r="AX5" s="5"/>
+      <c r="AY5" s="5"/>
+      <c r="AZ5" s="5"/>
+      <c r="BA5" s="5"/>
+      <c r="BB5" s="5"/>
+      <c r="BC5" s="5"/>
+      <c r="BD5" s="5"/>
+      <c r="BE5" s="5"/>
+      <c r="BF5" s="5"/>
+      <c r="BG5" s="5"/>
+      <c r="BH5" s="5"/>
+      <c r="BI5" s="5"/>
+      <c r="BJ5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="BK5" s="7"/>
-      <c r="BL5" s="7"/>
-      <c r="BM5" s="7"/>
-      <c r="BN5" s="7"/>
-      <c r="BO5" s="7"/>
-      <c r="BP5" s="7"/>
-      <c r="BQ5" s="7"/>
-      <c r="BR5" s="7"/>
-      <c r="BS5" s="7"/>
-      <c r="BT5" s="7" t="s">
+      <c r="BK5" s="5"/>
+      <c r="BL5" s="5"/>
+      <c r="BM5" s="5"/>
+      <c r="BN5" s="5"/>
+      <c r="BO5" s="5"/>
+      <c r="BP5" s="5"/>
+      <c r="BQ5" s="5"/>
+      <c r="BR5" s="5"/>
+      <c r="BS5" s="5"/>
+      <c r="BT5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="BU5" s="7"/>
-      <c r="BV5" s="7"/>
-      <c r="BW5" s="7"/>
-      <c r="BX5" s="7"/>
-      <c r="BY5" s="7"/>
-      <c r="BZ5" s="7"/>
-      <c r="CA5" s="7"/>
-      <c r="CB5" s="7"/>
-      <c r="CC5" s="7"/>
-      <c r="CD5" s="7"/>
-      <c r="CE5" s="7"/>
-      <c r="CF5" s="7"/>
-      <c r="CG5" s="7"/>
-      <c r="CH5" s="7" t="s">
+      <c r="BU5" s="5"/>
+      <c r="BV5" s="5"/>
+      <c r="BW5" s="5"/>
+      <c r="BX5" s="5"/>
+      <c r="BY5" s="5"/>
+      <c r="BZ5" s="5"/>
+      <c r="CA5" s="5"/>
+      <c r="CB5" s="5"/>
+      <c r="CC5" s="5"/>
+      <c r="CD5" s="5"/>
+      <c r="CE5" s="5"/>
+      <c r="CF5" s="5"/>
+      <c r="CG5" s="5"/>
+      <c r="CH5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CI5" s="7"/>
-      <c r="CJ5" s="7"/>
-      <c r="CK5" s="7"/>
-      <c r="CL5" s="7"/>
-      <c r="CM5" s="7"/>
-      <c r="CN5" s="7"/>
-      <c r="CO5" s="7"/>
-      <c r="CP5" s="7"/>
-      <c r="CQ5" s="7"/>
-      <c r="CR5" s="7"/>
-      <c r="CS5" s="7"/>
-      <c r="CT5" s="7"/>
+      <c r="CI5" s="5"/>
+      <c r="CJ5" s="5"/>
+      <c r="CK5" s="5"/>
+      <c r="CL5" s="5"/>
+      <c r="CM5" s="5"/>
+      <c r="CN5" s="5"/>
+      <c r="CO5" s="5"/>
+      <c r="CP5" s="5"/>
+      <c r="CQ5" s="5"/>
+      <c r="CR5" s="5"/>
+      <c r="CS5" s="5"/>
+      <c r="CT5" s="5"/>
     </row>
-    <row r="6" spans="1:98" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:98" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="9"/>
-      <c r="AP6" s="9"/>
-      <c r="AQ6" s="9"/>
-      <c r="AR6" s="9"/>
-      <c r="AS6" s="9"/>
-      <c r="AT6" s="9"/>
-      <c r="AU6" s="9"/>
-      <c r="AV6" s="9"/>
-      <c r="AW6" s="9"/>
-      <c r="AX6" s="9"/>
-      <c r="AY6" s="9"/>
-      <c r="AZ6" s="9"/>
-      <c r="BA6" s="9"/>
-      <c r="BB6" s="9"/>
-      <c r="BC6" s="9"/>
-      <c r="BD6" s="9"/>
-      <c r="BE6" s="9"/>
-      <c r="BF6" s="9"/>
-      <c r="BG6" s="9"/>
-      <c r="BH6" s="9"/>
-      <c r="BI6" s="9"/>
-      <c r="BJ6" s="10" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="7"/>
+      <c r="AW6" s="7"/>
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="7"/>
+      <c r="AZ6" s="7"/>
+      <c r="BA6" s="7"/>
+      <c r="BB6" s="7"/>
+      <c r="BC6" s="7"/>
+      <c r="BD6" s="7"/>
+      <c r="BE6" s="7"/>
+      <c r="BF6" s="7"/>
+      <c r="BG6" s="7"/>
+      <c r="BH6" s="7"/>
+      <c r="BI6" s="7"/>
+      <c r="BJ6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="BK6" s="10"/>
-      <c r="BL6" s="10"/>
-      <c r="BM6" s="10"/>
-      <c r="BN6" s="10"/>
-      <c r="BO6" s="10"/>
-      <c r="BP6" s="10"/>
-      <c r="BQ6" s="10"/>
-      <c r="BR6" s="10"/>
-      <c r="BS6" s="10"/>
-      <c r="BT6" s="10" t="s">
+      <c r="BK6" s="8"/>
+      <c r="BL6" s="8"/>
+      <c r="BM6" s="8"/>
+      <c r="BN6" s="8"/>
+      <c r="BO6" s="8"/>
+      <c r="BP6" s="8"/>
+      <c r="BQ6" s="8"/>
+      <c r="BR6" s="8"/>
+      <c r="BS6" s="8"/>
+      <c r="BT6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="BU6" s="10"/>
-      <c r="BV6" s="10"/>
-      <c r="BW6" s="10"/>
-      <c r="BX6" s="10"/>
-      <c r="BY6" s="10"/>
-      <c r="BZ6" s="10"/>
-      <c r="CA6" s="10"/>
-      <c r="CB6" s="10"/>
-      <c r="CC6" s="10"/>
-      <c r="CD6" s="10"/>
-      <c r="CE6" s="10"/>
-      <c r="CF6" s="10"/>
-      <c r="CG6" s="10"/>
-      <c r="CH6" s="10" t="s">
+      <c r="BU6" s="8"/>
+      <c r="BV6" s="8"/>
+      <c r="BW6" s="8"/>
+      <c r="BX6" s="8"/>
+      <c r="BY6" s="8"/>
+      <c r="BZ6" s="8"/>
+      <c r="CA6" s="8"/>
+      <c r="CB6" s="8"/>
+      <c r="CC6" s="8"/>
+      <c r="CD6" s="8"/>
+      <c r="CE6" s="8"/>
+      <c r="CF6" s="8"/>
+      <c r="CG6" s="8"/>
+      <c r="CH6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="CI6" s="10"/>
-      <c r="CJ6" s="10"/>
-      <c r="CK6" s="10"/>
-      <c r="CL6" s="10"/>
-      <c r="CM6" s="10"/>
-      <c r="CN6" s="10"/>
-      <c r="CO6" s="10"/>
-      <c r="CP6" s="10"/>
-      <c r="CQ6" s="10"/>
-      <c r="CR6" s="10"/>
-      <c r="CS6" s="10"/>
-      <c r="CT6" s="10"/>
+      <c r="CI6" s="8"/>
+      <c r="CJ6" s="8"/>
+      <c r="CK6" s="8"/>
+      <c r="CL6" s="8"/>
+      <c r="CM6" s="8"/>
+      <c r="CN6" s="8"/>
+      <c r="CO6" s="8"/>
+      <c r="CP6" s="8"/>
+      <c r="CQ6" s="8"/>
+      <c r="CR6" s="8"/>
+      <c r="CS6" s="8"/>
+      <c r="CT6" s="8"/>
     </row>
     <row r="7" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="5"/>
-      <c r="AP7" s="5"/>
-      <c r="AQ7" s="5"/>
-      <c r="AR7" s="5"/>
-      <c r="AS7" s="5"/>
-      <c r="AT7" s="5"/>
-      <c r="AU7" s="5"/>
-      <c r="AV7" s="5"/>
-      <c r="AW7" s="5"/>
-      <c r="AX7" s="5"/>
-      <c r="AY7" s="5"/>
-      <c r="AZ7" s="5"/>
-      <c r="BA7" s="5"/>
-      <c r="BB7" s="5"/>
-      <c r="BC7" s="5"/>
-      <c r="BD7" s="5"/>
-      <c r="BE7" s="5"/>
-      <c r="BF7" s="5"/>
-      <c r="BG7" s="5"/>
-      <c r="BH7" s="5"/>
-      <c r="BI7" s="5"/>
-      <c r="BJ7" s="5"/>
-      <c r="BK7" s="5"/>
-      <c r="BL7" s="5"/>
-      <c r="BM7" s="5"/>
-      <c r="BN7" s="5"/>
-      <c r="BO7" s="5"/>
-      <c r="BP7" s="5"/>
-      <c r="BQ7" s="5"/>
-      <c r="BR7" s="5"/>
-      <c r="BS7" s="5"/>
-      <c r="BT7" s="5"/>
-      <c r="BU7" s="5"/>
-      <c r="BV7" s="5"/>
-      <c r="BW7" s="5"/>
-      <c r="BX7" s="5"/>
-      <c r="BY7" s="5"/>
-      <c r="BZ7" s="5"/>
-      <c r="CA7" s="5"/>
-      <c r="CB7" s="5"/>
-      <c r="CC7" s="5"/>
-      <c r="CD7" s="5"/>
-      <c r="CE7" s="5"/>
-      <c r="CF7" s="5"/>
-      <c r="CG7" s="5"/>
-      <c r="CH7" s="6" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="11"/>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="11"/>
+      <c r="AR7" s="11"/>
+      <c r="AS7" s="11"/>
+      <c r="AT7" s="11"/>
+      <c r="AU7" s="11"/>
+      <c r="AV7" s="11"/>
+      <c r="AW7" s="11"/>
+      <c r="AX7" s="11"/>
+      <c r="AY7" s="11"/>
+      <c r="AZ7" s="11"/>
+      <c r="BA7" s="11"/>
+      <c r="BB7" s="11"/>
+      <c r="BC7" s="11"/>
+      <c r="BD7" s="11"/>
+      <c r="BE7" s="11"/>
+      <c r="BF7" s="11"/>
+      <c r="BG7" s="11"/>
+      <c r="BH7" s="11"/>
+      <c r="BI7" s="11"/>
+      <c r="BJ7" s="11"/>
+      <c r="BK7" s="11"/>
+      <c r="BL7" s="11"/>
+      <c r="BM7" s="11"/>
+      <c r="BN7" s="11"/>
+      <c r="BO7" s="11"/>
+      <c r="BP7" s="11"/>
+      <c r="BQ7" s="11"/>
+      <c r="BR7" s="11"/>
+      <c r="BS7" s="11"/>
+      <c r="BT7" s="11"/>
+      <c r="BU7" s="11"/>
+      <c r="BV7" s="11"/>
+      <c r="BW7" s="11"/>
+      <c r="BX7" s="11"/>
+      <c r="BY7" s="11"/>
+      <c r="BZ7" s="11"/>
+      <c r="CA7" s="11"/>
+      <c r="CB7" s="11"/>
+      <c r="CC7" s="11"/>
+      <c r="CD7" s="11"/>
+      <c r="CE7" s="11"/>
+      <c r="CF7" s="11"/>
+      <c r="CG7" s="11"/>
+      <c r="CH7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="CI7" s="6"/>
-      <c r="CJ7" s="6"/>
-      <c r="CK7" s="6"/>
-      <c r="CL7" s="6"/>
-      <c r="CM7" s="6"/>
-      <c r="CN7" s="6"/>
-      <c r="CO7" s="6"/>
-      <c r="CP7" s="6"/>
-      <c r="CQ7" s="6"/>
-      <c r="CR7" s="6"/>
-      <c r="CS7" s="6"/>
-      <c r="CT7" s="6"/>
+      <c r="CI7" s="4"/>
+      <c r="CJ7" s="4"/>
+      <c r="CK7" s="4"/>
+      <c r="CL7" s="4"/>
+      <c r="CM7" s="4"/>
+      <c r="CN7" s="4"/>
+      <c r="CO7" s="4"/>
+      <c r="CP7" s="4"/>
+      <c r="CQ7" s="4"/>
+      <c r="CR7" s="4"/>
+      <c r="CS7" s="4"/>
+      <c r="CT7" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/SaaMedW/templates/Invoice.xlsx
+++ b/SaaMedW/templates/Invoice.xlsx
@@ -157,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -166,12 +166,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -181,13 +187,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -473,7 +476,7 @@
   <dimension ref="A1:CT7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="AC3" sqref="AC3:AT3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,43 +490,43 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
       <c r="Y3" t="s">
         <v>2</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AC3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9"/>
-      <c r="AM3" s="9"/>
-      <c r="AN3" s="9"/>
-      <c r="AO3" s="9"/>
-      <c r="AP3" s="9"/>
-      <c r="AQ3" s="9"/>
-      <c r="AR3" s="9"/>
-      <c r="AS3" s="9"/>
-      <c r="AT3" s="9"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12"/>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="12"/>
+      <c r="AQ3" s="12"/>
+      <c r="AR3" s="12"/>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="12"/>
     </row>
     <row r="5" spans="1:98" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -636,226 +639,221 @@
       <c r="CT5" s="5"/>
     </row>
     <row r="6" spans="1:98" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="7"/>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="7"/>
-      <c r="AN6" s="7"/>
-      <c r="AO6" s="7"/>
-      <c r="AP6" s="7"/>
-      <c r="AQ6" s="7"/>
-      <c r="AR6" s="7"/>
-      <c r="AS6" s="7"/>
-      <c r="AT6" s="7"/>
-      <c r="AU6" s="7"/>
-      <c r="AV6" s="7"/>
-      <c r="AW6" s="7"/>
-      <c r="AX6" s="7"/>
-      <c r="AY6" s="7"/>
-      <c r="AZ6" s="7"/>
-      <c r="BA6" s="7"/>
-      <c r="BB6" s="7"/>
-      <c r="BC6" s="7"/>
-      <c r="BD6" s="7"/>
-      <c r="BE6" s="7"/>
-      <c r="BF6" s="7"/>
-      <c r="BG6" s="7"/>
-      <c r="BH6" s="7"/>
-      <c r="BI6" s="7"/>
-      <c r="BJ6" s="8" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="9"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="9"/>
+      <c r="AT6" s="9"/>
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="9"/>
+      <c r="AW6" s="9"/>
+      <c r="AX6" s="9"/>
+      <c r="AY6" s="9"/>
+      <c r="AZ6" s="9"/>
+      <c r="BA6" s="9"/>
+      <c r="BB6" s="9"/>
+      <c r="BC6" s="9"/>
+      <c r="BD6" s="9"/>
+      <c r="BE6" s="9"/>
+      <c r="BF6" s="9"/>
+      <c r="BG6" s="9"/>
+      <c r="BH6" s="9"/>
+      <c r="BI6" s="9"/>
+      <c r="BJ6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="BK6" s="8"/>
-      <c r="BL6" s="8"/>
-      <c r="BM6" s="8"/>
-      <c r="BN6" s="8"/>
-      <c r="BO6" s="8"/>
-      <c r="BP6" s="8"/>
-      <c r="BQ6" s="8"/>
-      <c r="BR6" s="8"/>
-      <c r="BS6" s="8"/>
-      <c r="BT6" s="8" t="s">
+      <c r="BK6" s="10"/>
+      <c r="BL6" s="10"/>
+      <c r="BM6" s="10"/>
+      <c r="BN6" s="10"/>
+      <c r="BO6" s="10"/>
+      <c r="BP6" s="10"/>
+      <c r="BQ6" s="10"/>
+      <c r="BR6" s="10"/>
+      <c r="BS6" s="10"/>
+      <c r="BT6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="BU6" s="8"/>
-      <c r="BV6" s="8"/>
-      <c r="BW6" s="8"/>
-      <c r="BX6" s="8"/>
-      <c r="BY6" s="8"/>
-      <c r="BZ6" s="8"/>
-      <c r="CA6" s="8"/>
-      <c r="CB6" s="8"/>
-      <c r="CC6" s="8"/>
-      <c r="CD6" s="8"/>
-      <c r="CE6" s="8"/>
-      <c r="CF6" s="8"/>
-      <c r="CG6" s="8"/>
-      <c r="CH6" s="8" t="s">
+      <c r="BU6" s="10"/>
+      <c r="BV6" s="10"/>
+      <c r="BW6" s="10"/>
+      <c r="BX6" s="10"/>
+      <c r="BY6" s="10"/>
+      <c r="BZ6" s="10"/>
+      <c r="CA6" s="10"/>
+      <c r="CB6" s="10"/>
+      <c r="CC6" s="10"/>
+      <c r="CD6" s="10"/>
+      <c r="CE6" s="10"/>
+      <c r="CF6" s="10"/>
+      <c r="CG6" s="10"/>
+      <c r="CH6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="CI6" s="8"/>
-      <c r="CJ6" s="8"/>
-      <c r="CK6" s="8"/>
-      <c r="CL6" s="8"/>
-      <c r="CM6" s="8"/>
-      <c r="CN6" s="8"/>
-      <c r="CO6" s="8"/>
-      <c r="CP6" s="8"/>
-      <c r="CQ6" s="8"/>
-      <c r="CR6" s="8"/>
-      <c r="CS6" s="8"/>
-      <c r="CT6" s="8"/>
+      <c r="CI6" s="10"/>
+      <c r="CJ6" s="10"/>
+      <c r="CK6" s="10"/>
+      <c r="CL6" s="10"/>
+      <c r="CM6" s="10"/>
+      <c r="CN6" s="10"/>
+      <c r="CO6" s="10"/>
+      <c r="CP6" s="10"/>
+      <c r="CQ6" s="10"/>
+      <c r="CR6" s="10"/>
+      <c r="CS6" s="10"/>
+      <c r="CT6" s="10"/>
     </row>
     <row r="7" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
-      <c r="AK7" s="11"/>
-      <c r="AL7" s="11"/>
-      <c r="AM7" s="11"/>
-      <c r="AN7" s="11"/>
-      <c r="AO7" s="11"/>
-      <c r="AP7" s="11"/>
-      <c r="AQ7" s="11"/>
-      <c r="AR7" s="11"/>
-      <c r="AS7" s="11"/>
-      <c r="AT7" s="11"/>
-      <c r="AU7" s="11"/>
-      <c r="AV7" s="11"/>
-      <c r="AW7" s="11"/>
-      <c r="AX7" s="11"/>
-      <c r="AY7" s="11"/>
-      <c r="AZ7" s="11"/>
-      <c r="BA7" s="11"/>
-      <c r="BB7" s="11"/>
-      <c r="BC7" s="11"/>
-      <c r="BD7" s="11"/>
-      <c r="BE7" s="11"/>
-      <c r="BF7" s="11"/>
-      <c r="BG7" s="11"/>
-      <c r="BH7" s="11"/>
-      <c r="BI7" s="11"/>
-      <c r="BJ7" s="11"/>
-      <c r="BK7" s="11"/>
-      <c r="BL7" s="11"/>
-      <c r="BM7" s="11"/>
-      <c r="BN7" s="11"/>
-      <c r="BO7" s="11"/>
-      <c r="BP7" s="11"/>
-      <c r="BQ7" s="11"/>
-      <c r="BR7" s="11"/>
-      <c r="BS7" s="11"/>
-      <c r="BT7" s="11"/>
-      <c r="BU7" s="11"/>
-      <c r="BV7" s="11"/>
-      <c r="BW7" s="11"/>
-      <c r="BX7" s="11"/>
-      <c r="BY7" s="11"/>
-      <c r="BZ7" s="11"/>
-      <c r="CA7" s="11"/>
-      <c r="CB7" s="11"/>
-      <c r="CC7" s="11"/>
-      <c r="CD7" s="11"/>
-      <c r="CE7" s="11"/>
-      <c r="CF7" s="11"/>
-      <c r="CG7" s="11"/>
-      <c r="CH7" s="4" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="6"/>
+      <c r="BK7" s="6"/>
+      <c r="BL7" s="6"/>
+      <c r="BM7" s="6"/>
+      <c r="BN7" s="6"/>
+      <c r="BO7" s="6"/>
+      <c r="BP7" s="6"/>
+      <c r="BQ7" s="6"/>
+      <c r="BR7" s="6"/>
+      <c r="BS7" s="6"/>
+      <c r="BT7" s="6"/>
+      <c r="BU7" s="6"/>
+      <c r="BV7" s="6"/>
+      <c r="BW7" s="6"/>
+      <c r="BX7" s="6"/>
+      <c r="BY7" s="6"/>
+      <c r="BZ7" s="6"/>
+      <c r="CA7" s="6"/>
+      <c r="CB7" s="6"/>
+      <c r="CC7" s="6"/>
+      <c r="CD7" s="6"/>
+      <c r="CE7" s="6"/>
+      <c r="CF7" s="6"/>
+      <c r="CG7" s="6"/>
+      <c r="CH7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="CI7" s="4"/>
-      <c r="CJ7" s="4"/>
-      <c r="CK7" s="4"/>
-      <c r="CL7" s="4"/>
-      <c r="CM7" s="4"/>
-      <c r="CN7" s="4"/>
-      <c r="CO7" s="4"/>
-      <c r="CP7" s="4"/>
-      <c r="CQ7" s="4"/>
-      <c r="CR7" s="4"/>
-      <c r="CS7" s="4"/>
-      <c r="CT7" s="4"/>
+      <c r="CI7" s="7"/>
+      <c r="CJ7" s="7"/>
+      <c r="CK7" s="7"/>
+      <c r="CL7" s="7"/>
+      <c r="CM7" s="7"/>
+      <c r="CN7" s="7"/>
+      <c r="CO7" s="7"/>
+      <c r="CP7" s="7"/>
+      <c r="CQ7" s="7"/>
+      <c r="CR7" s="7"/>
+      <c r="CS7" s="7"/>
+      <c r="CT7" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="L3:W3"/>
-    <mergeCell ref="AC3:AT3"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:BI5"/>
-    <mergeCell ref="A7:CG7"/>
     <mergeCell ref="CH7:CT7"/>
     <mergeCell ref="BJ5:BS5"/>
     <mergeCell ref="BT5:CG5"/>
@@ -865,6 +863,11 @@
     <mergeCell ref="BJ6:BS6"/>
     <mergeCell ref="BT6:CG6"/>
     <mergeCell ref="CH6:CT6"/>
+    <mergeCell ref="L3:W3"/>
+    <mergeCell ref="AC3:AT3"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:BI5"/>
+    <mergeCell ref="A7:CG7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/SaaMedW/templates/Invoice.xlsx
+++ b/SaaMedW/templates/Invoice.xlsx
@@ -29,17 +29,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>${OrganizationName}</t>
   </si>
   <si>
-    <t>Счет №</t>
-  </si>
-  <si>
-    <t>от</t>
-  </si>
-  <si>
     <t>№ п/п</t>
   </si>
   <si>
@@ -76,10 +70,7 @@
     <t>${Itogo}</t>
   </si>
   <si>
-    <t>${Num}</t>
-  </si>
-  <si>
-    <t>${Dt}</t>
+    <t>${NumDt}</t>
   </si>
 </sst>
 </file>
@@ -121,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -144,15 +135,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -169,6 +151,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -178,20 +166,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +458,7 @@
   <dimension ref="A1:CT7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3:AT3"/>
+      <selection activeCell="AW10" sqref="AW10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,11 +470,9 @@
     </row>
     <row r="3" spans="1:98" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -504,356 +484,354 @@
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
-      <c r="Y3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="12"/>
-      <c r="AN3" s="12"/>
-      <c r="AO3" s="12"/>
-      <c r="AP3" s="12"/>
-      <c r="AQ3" s="12"/>
-      <c r="AR3" s="12"/>
-      <c r="AS3" s="12"/>
-      <c r="AT3" s="12"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6"/>
     </row>
     <row r="5" spans="1:98" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="7"/>
+      <c r="BA5" s="7"/>
+      <c r="BB5" s="7"/>
+      <c r="BC5" s="7"/>
+      <c r="BD5" s="7"/>
+      <c r="BE5" s="7"/>
+      <c r="BF5" s="7"/>
+      <c r="BG5" s="7"/>
+      <c r="BH5" s="7"/>
+      <c r="BI5" s="7"/>
+      <c r="BJ5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
+      <c r="BK5" s="7"/>
+      <c r="BL5" s="7"/>
+      <c r="BM5" s="7"/>
+      <c r="BN5" s="7"/>
+      <c r="BO5" s="7"/>
+      <c r="BP5" s="7"/>
+      <c r="BQ5" s="7"/>
+      <c r="BR5" s="7"/>
+      <c r="BS5" s="7"/>
+      <c r="BT5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="5"/>
-      <c r="AP5" s="5"/>
-      <c r="AQ5" s="5"/>
-      <c r="AR5" s="5"/>
-      <c r="AS5" s="5"/>
-      <c r="AT5" s="5"/>
-      <c r="AU5" s="5"/>
-      <c r="AV5" s="5"/>
-      <c r="AW5" s="5"/>
-      <c r="AX5" s="5"/>
-      <c r="AY5" s="5"/>
-      <c r="AZ5" s="5"/>
-      <c r="BA5" s="5"/>
-      <c r="BB5" s="5"/>
-      <c r="BC5" s="5"/>
-      <c r="BD5" s="5"/>
-      <c r="BE5" s="5"/>
-      <c r="BF5" s="5"/>
-      <c r="BG5" s="5"/>
-      <c r="BH5" s="5"/>
-      <c r="BI5" s="5"/>
-      <c r="BJ5" s="5" t="s">
+      <c r="BU5" s="7"/>
+      <c r="BV5" s="7"/>
+      <c r="BW5" s="7"/>
+      <c r="BX5" s="7"/>
+      <c r="BY5" s="7"/>
+      <c r="BZ5" s="7"/>
+      <c r="CA5" s="7"/>
+      <c r="CB5" s="7"/>
+      <c r="CC5" s="7"/>
+      <c r="CD5" s="7"/>
+      <c r="CE5" s="7"/>
+      <c r="CF5" s="7"/>
+      <c r="CG5" s="7"/>
+      <c r="CH5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="BK5" s="5"/>
-      <c r="BL5" s="5"/>
-      <c r="BM5" s="5"/>
-      <c r="BN5" s="5"/>
-      <c r="BO5" s="5"/>
-      <c r="BP5" s="5"/>
-      <c r="BQ5" s="5"/>
-      <c r="BR5" s="5"/>
-      <c r="BS5" s="5"/>
-      <c r="BT5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="BU5" s="5"/>
-      <c r="BV5" s="5"/>
-      <c r="BW5" s="5"/>
-      <c r="BX5" s="5"/>
-      <c r="BY5" s="5"/>
-      <c r="BZ5" s="5"/>
-      <c r="CA5" s="5"/>
-      <c r="CB5" s="5"/>
-      <c r="CC5" s="5"/>
-      <c r="CD5" s="5"/>
-      <c r="CE5" s="5"/>
-      <c r="CF5" s="5"/>
-      <c r="CG5" s="5"/>
-      <c r="CH5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="CI5" s="5"/>
-      <c r="CJ5" s="5"/>
-      <c r="CK5" s="5"/>
-      <c r="CL5" s="5"/>
-      <c r="CM5" s="5"/>
-      <c r="CN5" s="5"/>
-      <c r="CO5" s="5"/>
-      <c r="CP5" s="5"/>
-      <c r="CQ5" s="5"/>
-      <c r="CR5" s="5"/>
-      <c r="CS5" s="5"/>
-      <c r="CT5" s="5"/>
+      <c r="CI5" s="7"/>
+      <c r="CJ5" s="7"/>
+      <c r="CK5" s="7"/>
+      <c r="CL5" s="7"/>
+      <c r="CM5" s="7"/>
+      <c r="CN5" s="7"/>
+      <c r="CO5" s="7"/>
+      <c r="CP5" s="7"/>
+      <c r="CQ5" s="7"/>
+      <c r="CR5" s="7"/>
+      <c r="CS5" s="7"/>
+      <c r="CT5" s="7"/>
     </row>
     <row r="6" spans="1:98" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11"/>
+      <c r="AP6" s="11"/>
+      <c r="AQ6" s="11"/>
+      <c r="AR6" s="11"/>
+      <c r="AS6" s="11"/>
+      <c r="AT6" s="11"/>
+      <c r="AU6" s="11"/>
+      <c r="AV6" s="11"/>
+      <c r="AW6" s="11"/>
+      <c r="AX6" s="11"/>
+      <c r="AY6" s="11"/>
+      <c r="AZ6" s="11"/>
+      <c r="BA6" s="11"/>
+      <c r="BB6" s="11"/>
+      <c r="BC6" s="11"/>
+      <c r="BD6" s="11"/>
+      <c r="BE6" s="11"/>
+      <c r="BF6" s="11"/>
+      <c r="BG6" s="11"/>
+      <c r="BH6" s="11"/>
+      <c r="BI6" s="11"/>
+      <c r="BJ6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9" t="s">
+      <c r="BK6" s="12"/>
+      <c r="BL6" s="12"/>
+      <c r="BM6" s="12"/>
+      <c r="BN6" s="12"/>
+      <c r="BO6" s="12"/>
+      <c r="BP6" s="12"/>
+      <c r="BQ6" s="12"/>
+      <c r="BR6" s="12"/>
+      <c r="BS6" s="12"/>
+      <c r="BT6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="9"/>
-      <c r="AP6" s="9"/>
-      <c r="AQ6" s="9"/>
-      <c r="AR6" s="9"/>
-      <c r="AS6" s="9"/>
-      <c r="AT6" s="9"/>
-      <c r="AU6" s="9"/>
-      <c r="AV6" s="9"/>
-      <c r="AW6" s="9"/>
-      <c r="AX6" s="9"/>
-      <c r="AY6" s="9"/>
-      <c r="AZ6" s="9"/>
-      <c r="BA6" s="9"/>
-      <c r="BB6" s="9"/>
-      <c r="BC6" s="9"/>
-      <c r="BD6" s="9"/>
-      <c r="BE6" s="9"/>
-      <c r="BF6" s="9"/>
-      <c r="BG6" s="9"/>
-      <c r="BH6" s="9"/>
-      <c r="BI6" s="9"/>
-      <c r="BJ6" s="10" t="s">
+      <c r="BU6" s="12"/>
+      <c r="BV6" s="12"/>
+      <c r="BW6" s="12"/>
+      <c r="BX6" s="12"/>
+      <c r="BY6" s="12"/>
+      <c r="BZ6" s="12"/>
+      <c r="CA6" s="12"/>
+      <c r="CB6" s="12"/>
+      <c r="CC6" s="12"/>
+      <c r="CD6" s="12"/>
+      <c r="CE6" s="12"/>
+      <c r="CF6" s="12"/>
+      <c r="CG6" s="12"/>
+      <c r="CH6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="BK6" s="10"/>
-      <c r="BL6" s="10"/>
-      <c r="BM6" s="10"/>
-      <c r="BN6" s="10"/>
-      <c r="BO6" s="10"/>
-      <c r="BP6" s="10"/>
-      <c r="BQ6" s="10"/>
-      <c r="BR6" s="10"/>
-      <c r="BS6" s="10"/>
-      <c r="BT6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="BU6" s="10"/>
-      <c r="BV6" s="10"/>
-      <c r="BW6" s="10"/>
-      <c r="BX6" s="10"/>
-      <c r="BY6" s="10"/>
-      <c r="BZ6" s="10"/>
-      <c r="CA6" s="10"/>
-      <c r="CB6" s="10"/>
-      <c r="CC6" s="10"/>
-      <c r="CD6" s="10"/>
-      <c r="CE6" s="10"/>
-      <c r="CF6" s="10"/>
-      <c r="CG6" s="10"/>
-      <c r="CH6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="CI6" s="10"/>
-      <c r="CJ6" s="10"/>
-      <c r="CK6" s="10"/>
-      <c r="CL6" s="10"/>
-      <c r="CM6" s="10"/>
-      <c r="CN6" s="10"/>
-      <c r="CO6" s="10"/>
-      <c r="CP6" s="10"/>
-      <c r="CQ6" s="10"/>
-      <c r="CR6" s="10"/>
-      <c r="CS6" s="10"/>
-      <c r="CT6" s="10"/>
+      <c r="CI6" s="12"/>
+      <c r="CJ6" s="12"/>
+      <c r="CK6" s="12"/>
+      <c r="CL6" s="12"/>
+      <c r="CM6" s="12"/>
+      <c r="CN6" s="12"/>
+      <c r="CO6" s="12"/>
+      <c r="CP6" s="12"/>
+      <c r="CQ6" s="12"/>
+      <c r="CR6" s="12"/>
+      <c r="CS6" s="12"/>
+      <c r="CT6" s="12"/>
     </row>
     <row r="7" spans="1:98" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="6"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
-      <c r="AQ7" s="6"/>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="6"/>
-      <c r="AT7" s="6"/>
-      <c r="AU7" s="6"/>
-      <c r="AV7" s="6"/>
-      <c r="AW7" s="6"/>
-      <c r="AX7" s="6"/>
-      <c r="AY7" s="6"/>
-      <c r="AZ7" s="6"/>
-      <c r="BA7" s="6"/>
-      <c r="BB7" s="6"/>
-      <c r="BC7" s="6"/>
-      <c r="BD7" s="6"/>
-      <c r="BE7" s="6"/>
-      <c r="BF7" s="6"/>
-      <c r="BG7" s="6"/>
-      <c r="BH7" s="6"/>
-      <c r="BI7" s="6"/>
-      <c r="BJ7" s="6"/>
-      <c r="BK7" s="6"/>
-      <c r="BL7" s="6"/>
-      <c r="BM7" s="6"/>
-      <c r="BN7" s="6"/>
-      <c r="BO7" s="6"/>
-      <c r="BP7" s="6"/>
-      <c r="BQ7" s="6"/>
-      <c r="BR7" s="6"/>
-      <c r="BS7" s="6"/>
-      <c r="BT7" s="6"/>
-      <c r="BU7" s="6"/>
-      <c r="BV7" s="6"/>
-      <c r="BW7" s="6"/>
-      <c r="BX7" s="6"/>
-      <c r="BY7" s="6"/>
-      <c r="BZ7" s="6"/>
-      <c r="CA7" s="6"/>
-      <c r="CB7" s="6"/>
-      <c r="CC7" s="6"/>
-      <c r="CD7" s="6"/>
-      <c r="CE7" s="6"/>
-      <c r="CF7" s="6"/>
-      <c r="CG7" s="6"/>
-      <c r="CH7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="CI7" s="7"/>
-      <c r="CJ7" s="7"/>
-      <c r="CK7" s="7"/>
-      <c r="CL7" s="7"/>
-      <c r="CM7" s="7"/>
-      <c r="CN7" s="7"/>
-      <c r="CO7" s="7"/>
-      <c r="CP7" s="7"/>
-      <c r="CQ7" s="7"/>
-      <c r="CR7" s="7"/>
-      <c r="CS7" s="7"/>
-      <c r="CT7" s="7"/>
+      <c r="A7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="8"/>
+      <c r="AQ7" s="8"/>
+      <c r="AR7" s="8"/>
+      <c r="AS7" s="8"/>
+      <c r="AT7" s="8"/>
+      <c r="AU7" s="8"/>
+      <c r="AV7" s="8"/>
+      <c r="AW7" s="8"/>
+      <c r="AX7" s="8"/>
+      <c r="AY7" s="8"/>
+      <c r="AZ7" s="8"/>
+      <c r="BA7" s="8"/>
+      <c r="BB7" s="8"/>
+      <c r="BC7" s="8"/>
+      <c r="BD7" s="8"/>
+      <c r="BE7" s="8"/>
+      <c r="BF7" s="8"/>
+      <c r="BG7" s="8"/>
+      <c r="BH7" s="8"/>
+      <c r="BI7" s="8"/>
+      <c r="BJ7" s="8"/>
+      <c r="BK7" s="8"/>
+      <c r="BL7" s="8"/>
+      <c r="BM7" s="8"/>
+      <c r="BN7" s="8"/>
+      <c r="BO7" s="8"/>
+      <c r="BP7" s="8"/>
+      <c r="BQ7" s="8"/>
+      <c r="BR7" s="8"/>
+      <c r="BS7" s="8"/>
+      <c r="BT7" s="8"/>
+      <c r="BU7" s="8"/>
+      <c r="BV7" s="8"/>
+      <c r="BW7" s="8"/>
+      <c r="BX7" s="8"/>
+      <c r="BY7" s="8"/>
+      <c r="BZ7" s="8"/>
+      <c r="CA7" s="8"/>
+      <c r="CB7" s="8"/>
+      <c r="CC7" s="8"/>
+      <c r="CD7" s="8"/>
+      <c r="CE7" s="8"/>
+      <c r="CF7" s="8"/>
+      <c r="CG7" s="8"/>
+      <c r="CH7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="CI7" s="9"/>
+      <c r="CJ7" s="9"/>
+      <c r="CK7" s="9"/>
+      <c r="CL7" s="9"/>
+      <c r="CM7" s="9"/>
+      <c r="CN7" s="9"/>
+      <c r="CO7" s="9"/>
+      <c r="CP7" s="9"/>
+      <c r="CQ7" s="9"/>
+      <c r="CR7" s="9"/>
+      <c r="CS7" s="9"/>
+      <c r="CT7" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="12">
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:BI5"/>
+    <mergeCell ref="A7:CG7"/>
     <mergeCell ref="CH7:CT7"/>
     <mergeCell ref="BJ5:BS5"/>
     <mergeCell ref="BT5:CG5"/>
@@ -863,11 +841,6 @@
     <mergeCell ref="BJ6:BS6"/>
     <mergeCell ref="BT6:CG6"/>
     <mergeCell ref="CH6:CT6"/>
-    <mergeCell ref="L3:W3"/>
-    <mergeCell ref="AC3:AT3"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:BI5"/>
-    <mergeCell ref="A7:CG7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
